--- a/raw_data/Dcrab_Month&Port_2002-2015.xlsx
+++ b/raw_data/Dcrab_Month&Port_2002-2015.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="40" windowWidth="16260" windowHeight="5840" activeTab="2"/>
+    <workbookView xWindow="100" yWindow="40" windowWidth="21600" windowHeight="10660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2002-2006" sheetId="1" r:id="rId1"/>
     <sheet name="2006-2010" sheetId="2" r:id="rId2"/>
     <sheet name="2010-2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2711,9 +2711,9 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2873,31 +2873,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>24907.75</v>
+        <v>1592</v>
       </c>
       <c r="C2" s="6">
-        <v>4761616.9925000053</v>
+        <v>1329048.8</v>
       </c>
       <c r="D2" s="6">
-        <v>2768930.836000002</v>
+        <v>2365105.1</v>
       </c>
       <c r="E2" s="6">
-        <v>949266.15</v>
+        <v>506144.2</v>
       </c>
       <c r="F2" s="6">
-        <v>315233.20000000007</v>
+        <v>90904.95</v>
       </c>
       <c r="G2" s="6">
-        <v>495764</v>
+        <v>39369.550000000003</v>
       </c>
       <c r="H2" s="6">
-        <v>137677.25</v>
+        <v>17305.45</v>
       </c>
       <c r="I2" s="6">
-        <v>48891</v>
+        <v>1790.15</v>
       </c>
       <c r="J2" s="6">
-        <v>7802.75</v>
+        <v>3799.15</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="6"/>
@@ -3011,28 +3011,28 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
-        <v>860353.28499999957</v>
+        <v>223965</v>
       </c>
       <c r="D3" s="6">
-        <v>510519.29999999993</v>
+        <v>511112.5</v>
       </c>
       <c r="E3" s="6">
-        <v>234945.10000000003</v>
+        <v>209787</v>
       </c>
       <c r="F3" s="6">
-        <v>175469.8</v>
+        <v>32658</v>
       </c>
       <c r="G3" s="6">
-        <v>209894.25</v>
+        <v>49565</v>
       </c>
       <c r="H3" s="6">
-        <v>95437.5</v>
+        <v>9241</v>
       </c>
       <c r="I3" s="6">
-        <v>37454.5</v>
+        <v>1756</v>
       </c>
       <c r="J3" s="6">
-        <v>1188</v>
+        <v>628</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6"/>
@@ -3135,31 +3135,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>7533.37</v>
+        <v>479</v>
       </c>
       <c r="C4" s="6">
-        <v>2028480.9400000004</v>
+        <v>736958.24</v>
       </c>
       <c r="D4" s="6">
-        <v>1114686.9249999993</v>
+        <v>2236100.58</v>
       </c>
       <c r="E4" s="6">
-        <v>368020.755</v>
+        <v>415464.5</v>
       </c>
       <c r="F4" s="6">
-        <v>351227.41200000001</v>
+        <v>72536</v>
       </c>
       <c r="G4" s="6">
-        <v>345361</v>
+        <v>77699</v>
       </c>
       <c r="H4" s="6">
-        <v>217585.6</v>
+        <v>111570</v>
       </c>
       <c r="I4" s="6">
-        <v>99549.650000000009</v>
+        <v>21990</v>
       </c>
       <c r="J4" s="6">
-        <v>14389.5</v>
+        <v>4271</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="6"/>
@@ -3273,30 +3273,32 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <v>17590</v>
+      </c>
       <c r="C5" s="6">
-        <v>412618.04499999993</v>
+        <v>56940.27</v>
       </c>
       <c r="D5" s="6">
-        <v>1025030.2299999995</v>
+        <v>235060.36</v>
       </c>
       <c r="E5" s="6">
-        <v>460539.70000000007</v>
+        <v>73880.25</v>
       </c>
       <c r="F5" s="6">
-        <v>221971.65</v>
+        <v>24055.3</v>
       </c>
       <c r="G5" s="6">
-        <v>308720.55</v>
+        <v>9822</v>
       </c>
       <c r="H5" s="6">
-        <v>162734.55000000005</v>
+        <v>2083</v>
       </c>
       <c r="I5" s="6">
-        <v>82298.850000000006</v>
+        <v>378</v>
       </c>
       <c r="J5" s="6">
-        <v>9544.5</v>
+        <v>2849.85</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="6"/>
@@ -3415,28 +3417,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>3265332.8400000008</v>
+        <v>581225.69999999995</v>
       </c>
       <c r="C6" s="6">
-        <v>3739522.9523999998</v>
+        <v>431486.8</v>
       </c>
       <c r="D6" s="6">
-        <v>2592407.2099999995</v>
+        <v>175854.4</v>
       </c>
       <c r="E6" s="6">
-        <v>1107948.1449999993</v>
+        <v>67929.350000000006</v>
       </c>
       <c r="F6" s="6">
-        <v>922077.10499999986</v>
+        <v>22791.8</v>
       </c>
       <c r="G6" s="6">
-        <v>450470.20750000002</v>
+        <v>17934.599999999999</v>
       </c>
       <c r="H6" s="6">
-        <v>261097.48500000002</v>
+        <v>7120.15</v>
       </c>
       <c r="I6" s="6">
-        <v>188144.84999999998</v>
+        <v>6296.55</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -3554,30 +3556,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>6241928.9974999996</v>
+        <v>1227964</v>
       </c>
       <c r="C7" s="6">
-        <v>4812829.1449999986</v>
+        <v>359450.5</v>
       </c>
       <c r="D7" s="6">
-        <v>2698139.89</v>
+        <v>130603</v>
       </c>
       <c r="E7" s="6">
-        <v>1229241.3500000001</v>
+        <v>63321</v>
       </c>
       <c r="F7" s="6">
-        <v>625191.79999999993</v>
+        <v>12213</v>
       </c>
       <c r="G7" s="6">
-        <v>343065.00000000006</v>
+        <v>15849</v>
       </c>
       <c r="H7" s="6">
-        <v>191377.75</v>
+        <v>8702.7000000000007</v>
       </c>
       <c r="I7" s="6">
-        <v>117367.18999999999</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>4841</v>
+      </c>
+      <c r="J7" s="6">
+        <v>169</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="6">
         <v>260702.5</v>
@@ -3693,30 +3697,32 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>2393085.0965000009</v>
+        <v>483934.57</v>
       </c>
       <c r="C8" s="6">
-        <v>2869629.6370000006</v>
+        <v>322785.26</v>
       </c>
       <c r="D8" s="6">
-        <v>1534540.9233999997</v>
+        <v>124022.63</v>
       </c>
       <c r="E8" s="6">
-        <v>522807.777</v>
+        <v>77876.600000000006</v>
       </c>
       <c r="F8" s="6">
-        <v>358822.81549999997</v>
+        <v>38517.449999999997</v>
       </c>
       <c r="G8" s="6">
-        <v>231116.08399999997</v>
+        <v>21215.95</v>
       </c>
       <c r="H8" s="6">
-        <v>57837.109999999993</v>
+        <v>6343.2</v>
       </c>
       <c r="I8" s="6">
-        <v>35924.067499999997</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>4555.8</v>
+      </c>
+      <c r="J8" s="6">
+        <v>112.9</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="6">
         <v>108286.34</v>
@@ -3832,32 +3838,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>125072.84999999999</v>
+        <v>23880.79</v>
       </c>
       <c r="C9" s="6">
-        <v>267231.92499999993</v>
+        <v>26194.05</v>
       </c>
       <c r="D9" s="6">
-        <v>137222.89499999996</v>
+        <v>27083.52</v>
       </c>
       <c r="E9" s="6">
-        <v>152311.57999999999</v>
+        <v>13654.35</v>
       </c>
       <c r="F9" s="6">
-        <v>95164.925000000003</v>
+        <v>11248</v>
       </c>
       <c r="G9" s="6">
-        <v>58527.63</v>
+        <v>5975.12</v>
       </c>
       <c r="H9" s="6">
-        <v>84336.439999999973</v>
+        <v>5427.59</v>
       </c>
       <c r="I9" s="6">
-        <v>144969.26500000001</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4912.8</v>
-      </c>
+        <v>6579.64</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="7"/>
       <c r="L9" s="6">
         <v>53962</v>
@@ -3971,24 +3975,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>1500</v>
+        <v>1500.5</v>
       </c>
       <c r="C10" s="6">
-        <v>3600</v>
+        <v>1416</v>
       </c>
       <c r="D10" s="6">
-        <v>3064.75</v>
+        <v>4369.8</v>
       </c>
       <c r="E10" s="6">
-        <v>1601.4</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+        <v>5014.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4564.05</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8248.1</v>
+      </c>
       <c r="H10" s="6">
-        <v>1107.5</v>
+        <v>3828.5</v>
       </c>
       <c r="I10" s="6">
-        <v>825</v>
+        <v>2080.5</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
